--- a/medicine/Enfance/Chantal_Cahour/Chantal_Cahour.xlsx
+++ b/medicine/Enfance/Chantal_Cahour/Chantal_Cahour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chantal Cahour, née le 22 décembre 1947 à Metz (Moselle)[1], est une romancière française, auteur de littérature pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantal Cahour, née le 22 décembre 1947 à Metz (Moselle), est une romancière française, auteur de littérature pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir exercé de multiples professions[2], Chantal Cahour publie son premier roman en 1993 et en a écrit une trentaine depuis.
-Elle participe souvent à des animations autour du livre ou a des rencontres avec des classes d'écoles primaires ou de collège[3] en France, ou même en Suisse[4]. Elle vit à Angers[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir exercé de multiples professions, Chantal Cahour publie son premier roman en 1993 et en a écrit une trentaine depuis.
+Elle participe souvent à des animations autour du livre ou a des rencontres avec des classes d'écoles primaires ou de collège en France, ou même en Suisse. Elle vit à Angers.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chantal Cahour (ill. Catherine Chion), Touche pas à mon père, Paris, Rageot, coll. « Cascade », 1993, 153 p. (ISBN 2-7002-0016-0, BNF 37159502)
 Chantal Cahour (ill. Béatrice Savignac), L'Insupportable G.T.M., Paris, Flammarion, coll. « Castor Poche », 1994, 47 p. (ISBN 2-08-162971-2, BNF 35648384)
